--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
@@ -543,7 +543,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H2">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>0.2036326535346667</v>
+        <v>0.1738248209991111</v>
       </c>
       <c r="R2">
-        <v>1.832693881812</v>
+        <v>1.564423388992</v>
       </c>
       <c r="S2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="T2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,7 +605,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H3">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
-        <v>0.4923426398826667</v>
+        <v>0.4923426398826666</v>
       </c>
       <c r="R3">
-        <v>4.431083758944001</v>
+        <v>4.431083758944</v>
       </c>
       <c r="S3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="T3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,7 +667,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H4">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>0.1102393634555555</v>
+        <v>0.1561744960044444</v>
       </c>
       <c r="R4">
-        <v>0.9921542711</v>
+        <v>1.40557046404</v>
       </c>
       <c r="S4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="T4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,7 +729,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H5">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>0.2483414245780001</v>
+        <v>0.330638038252</v>
       </c>
       <c r="R5">
-        <v>1.490048547468001</v>
+        <v>1.983828229512</v>
       </c>
       <c r="S5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="T5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,7 +791,7 @@
         <v>0.02481466666666667</v>
       </c>
       <c r="H6">
-        <v>0.07444400000000001</v>
+        <v>0.074444</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>0.1246418787044444</v>
+        <v>0.1439356790724445</v>
       </c>
       <c r="R6">
-        <v>1.12177690834</v>
+        <v>1.295421111652</v>
       </c>
       <c r="S6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="T6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
     </row>
   </sheetData>
